--- a/biology/Médecine/1319_en_santé_et_médecine/1319_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1319_en_santé_et_médecine/1319_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1319_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1319_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1319 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1319_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1319_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Création à Carcassonne d'une maison-Dieu Notre-Dame qui, réservée aux malades qui n'ont pas à être mis à l'écart, est bâtie du côté de la ville, à la tête sud du pont Vieux, à l'opposé de l'hôpital Saint-Jacques[2].
-Fondation de l'hôpital Saint-Jacques de Tournai, en Flandre[3].
-L'hôpital Saint-Léonard (St. Leonard's hospital) est attesté hors les murs de Lanark en Écosse[4].
-Quatre étudiants en médecine de l'université de Bologne sont poursuivis en justice pour avoir violé une tombe et transporté le cadavre chez leur professeur, maître Alberto[5].
-Fl. Joan de Rivis, médecin attitré de la ville de Vic, en Aragon, et dont la pratique est dispersée sur tout le territoire du comté d'Osona[6].
-1316-1319 : fondation de l'hôpital de Molsheim, en Alsace, par Jean Ier, évêque de Strasbourg[7],[8].
-1319-1323 : création[9] de l'hôpital Saint-Jacques-aux-Pèlerins, rue Saint-Denis, à Paris[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Création à Carcassonne d'une maison-Dieu Notre-Dame qui, réservée aux malades qui n'ont pas à être mis à l'écart, est bâtie du côté de la ville, à la tête sud du pont Vieux, à l'opposé de l'hôpital Saint-Jacques.
+Fondation de l'hôpital Saint-Jacques de Tournai, en Flandre.
+L'hôpital Saint-Léonard (St. Leonard's hospital) est attesté hors les murs de Lanark en Écosse.
+Quatre étudiants en médecine de l'université de Bologne sont poursuivis en justice pour avoir violé une tombe et transporté le cadavre chez leur professeur, maître Alberto.
+Fl. Joan de Rivis, médecin attitré de la ville de Vic, en Aragon, et dont la pratique est dispersée sur tout le territoire du comté d'Osona.
+1316-1319 : fondation de l'hôpital de Molsheim, en Alsace, par Jean Ier, évêque de Strasbourg,.
+1319-1323 : création de l'hôpital Saint-Jacques-aux-Pèlerins, rue Saint-Denis, à Paris.
 </t>
         </is>
       </c>
